--- a/biology/Biochimie/Nicotinamide_adénine_dinucléotide_phosphate/Nicotinamide_adénine_dinucléotide_phosphate.xlsx
+++ b/biology/Biochimie/Nicotinamide_adénine_dinucléotide_phosphate/Nicotinamide_adénine_dinucléotide_phosphate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nicotinamide_ad%C3%A9nine_dinucl%C3%A9otide_phosphate</t>
+          <t>Nicotinamide_adénine_dinucléotide_phosphate</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le nicotinamide adénine dinucléotide phosphate (NADP) est une coenzyme présente dans toutes les cellules vivantes[3]. Il s'agit d'un dinucléotide, dans la mesure où la molécule est constituée d'un premier nucléotide, dont la base nucléique est l'adénine, uni à un second nucléotide, dont la base est le nicotinamide. Le NADP existe sous une forme réduite, notée NADPH, et une forme oxydée, notée NADP+. Très semblable au NAD, il ne diffère chimiquement de ce dernier que par la présence d'un groupe phosphate sur le second atome de carbone du β-D-ribofurannose du résidu d'adénosine. Le NAD est phosphorylé en NADP par la NAD+ kinase tandis que le groupe phosphate du NADP est clivé pour redonner du NAD par la NADP+ phosphatase[4].
-Le NADP intervient dans le métabolisme comme transporteur d'électrons dans les réactions d'oxydoréduction, le NADPH comme réducteur et le NADP+ comme oxydant. Plus spécifiquement, le NADPH fournit du pouvoir réducteur dans les réactions de biosynthèse de l'anabolisme, par exemple dans la voie du mévalonate de biosynthèse du cholestérol ou encore dans la biosynthèse des acides gras, ainsi que dans les réactions d'oxydoréduction destinées à protéger les cellules de la toxicité des dérivés réactifs de l'oxygène en régénérant le glutathion GSH[5]. Il est également impliqué dans la génération de radicaux libres par explosion oxydative dans les cellules du système immunitaire (granulocytes neutrophiles), ces radicaux contribuant à la destruction des agents infectieux[6]. Enfin, le NADPH est également la source du pouvoir réducteur utilisé dans l'hydroxylation par les cytochromes P450 des composés aromatiques, des stéroïdes, des alcools et des drogues.
+Le nicotinamide adénine dinucléotide phosphate (NADP) est une coenzyme présente dans toutes les cellules vivantes. Il s'agit d'un dinucléotide, dans la mesure où la molécule est constituée d'un premier nucléotide, dont la base nucléique est l'adénine, uni à un second nucléotide, dont la base est le nicotinamide. Le NADP existe sous une forme réduite, notée NADPH, et une forme oxydée, notée NADP+. Très semblable au NAD, il ne diffère chimiquement de ce dernier que par la présence d'un groupe phosphate sur le second atome de carbone du β-D-ribofurannose du résidu d'adénosine. Le NAD est phosphorylé en NADP par la NAD+ kinase tandis que le groupe phosphate du NADP est clivé pour redonner du NAD par la NADP+ phosphatase.
+Le NADP intervient dans le métabolisme comme transporteur d'électrons dans les réactions d'oxydoréduction, le NADPH comme réducteur et le NADP+ comme oxydant. Plus spécifiquement, le NADPH fournit du pouvoir réducteur dans les réactions de biosynthèse de l'anabolisme, par exemple dans la voie du mévalonate de biosynthèse du cholestérol ou encore dans la biosynthèse des acides gras, ainsi que dans les réactions d'oxydoréduction destinées à protéger les cellules de la toxicité des dérivés réactifs de l'oxygène en régénérant le glutathion GSH. Il est également impliqué dans la génération de radicaux libres par explosion oxydative dans les cellules du système immunitaire (granulocytes neutrophiles), ces radicaux contribuant à la destruction des agents infectieux. Enfin, le NADPH est également la source du pouvoir réducteur utilisé dans l'hydroxylation par les cytochromes P450 des composés aromatiques, des stéroïdes, des alcools et des drogues.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nicotinamide_ad%C3%A9nine_dinucl%C3%A9otide_phosphate</t>
+          <t>Nicotinamide_adénine_dinucléotide_phosphate</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Rôle cellulaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au niveau du métabolisme, le NADPH est principalement produit par la phase oxydative de la voie des pentoses phosphates.
 Le NADPH est la source principale d'électrons utilisés dans les réactions biosynthétiques dans la cellule. Il est également utilisé dans les mécanismes de protection contre le stress oxydant et les espèces réactives de l'oxygène (ROS). La détoxication de ces espèces réactives fait intervenir le glutathion qui doit être régénéré constamment par la glutathion réductase suivant le schéma suivant :
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nicotinamide_ad%C3%A9nine_dinucl%C3%A9otide_phosphate</t>
+          <t>Nicotinamide_adénine_dinucléotide_phosphate</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,12 +561,14 @@
           <t>Différence avec le NADH</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			NADPH.
 			NADH.
-Le NADH et le NADPH sont tous les deux des porteurs d'électrons. Mais alors que le NADH est impliqué dans des réactions d'oxydations (où le NAD+ aspire les électrons d'un composé à oxyder : réactions cataboliques), le NADPH, lui, participe à des réactions de réductions (visant à offrir des électrons à un composé : réactions anaboliques). Comme dit précédemment, la différence chimique entre le NADPH et le NADH est le groupement phosphate sur le ribose portant l'adénine en position 2'. Cet unique groupe phosphate est situé trop loin dans la molécule pour pouvoir interférer sur le transfert d'électron s'effectuant sur le cycle pyridine du nicotinamide (situé en haut sur les formules topologiques de la galerie ci-dessus). Les deux molécules possèdent donc des propriétés de transfert d'électrons similaires. En revanche, la présence du phosphate sur le NADPH lui confère une différence de forme spatiale par rapport au NADH. L'intérêt biologique du phosphate (présent sur le NADPH et absent du NADH) réside donc dans la capacité de chaque molécule à être reconnue différentiellement par deux groupes d'enzymes spécifiques. Ainsi, le métabolisme cellulaire dispose de deux voies pouvant fonctionner de manière indépendante : une voie catabolique utilisant le NAD+ et une voie anabolique utilisant le NADPH. En effet, dans les cellules, le ratio NAD+/NADH est maintenu élevé, tandis que le ratio NADP+/NADPH est faible[7].
+Le NADH et le NADPH sont tous les deux des porteurs d'électrons. Mais alors que le NADH est impliqué dans des réactions d'oxydations (où le NAD+ aspire les électrons d'un composé à oxyder : réactions cataboliques), le NADPH, lui, participe à des réactions de réductions (visant à offrir des électrons à un composé : réactions anaboliques). Comme dit précédemment, la différence chimique entre le NADPH et le NADH est le groupement phosphate sur le ribose portant l'adénine en position 2'. Cet unique groupe phosphate est situé trop loin dans la molécule pour pouvoir interférer sur le transfert d'électron s'effectuant sur le cycle pyridine du nicotinamide (situé en haut sur les formules topologiques de la galerie ci-dessus). Les deux molécules possèdent donc des propriétés de transfert d'électrons similaires. En revanche, la présence du phosphate sur le NADPH lui confère une différence de forme spatiale par rapport au NADH. L'intérêt biologique du phosphate (présent sur le NADPH et absent du NADH) réside donc dans la capacité de chaque molécule à être reconnue différentiellement par deux groupes d'enzymes spécifiques. Ainsi, le métabolisme cellulaire dispose de deux voies pouvant fonctionner de manière indépendante : une voie catabolique utilisant le NAD+ et une voie anabolique utilisant le NADPH. En effet, dans les cellules, le ratio NAD+/NADH est maintenu élevé, tandis que le ratio NADP+/NADPH est faible.
 </t>
         </is>
       </c>
